--- a/fms_core/static/submission_templates/Sample_update_v0.5.xlsx
+++ b/fms_core/static/submission_templates/Sample_update_v0.5.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="417">
   <si>
     <t xml:space="preserve">Sample Update</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coord (if plate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Volume (uL)</t>
   </si>
   <si>
     <t xml:space="preserve">Delta Volume (uL)</t>
@@ -1509,41 +1512,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1565,8 +1568,11 @@
       <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1582,9 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
@@ -1587,8 +1594,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
@@ -1598,8 +1606,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>4</v>
       </c>
@@ -1609,8 +1618,9 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
@@ -1620,8 +1630,9 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>6</v>
       </c>
@@ -1631,8 +1642,9 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>7</v>
       </c>
@@ -1642,8 +1654,9 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>8</v>
       </c>
@@ -1653,8 +1666,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>9</v>
       </c>
@@ -1664,8 +1678,9 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>10</v>
       </c>
@@ -1675,8 +1690,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>11</v>
       </c>
@@ -1686,8 +1702,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>12</v>
       </c>
@@ -1697,8 +1714,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>13</v>
       </c>
@@ -1708,8 +1726,9 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>14</v>
       </c>
@@ -1719,8 +1738,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>15</v>
       </c>
@@ -1730,8 +1750,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>16</v>
       </c>
@@ -1741,8 +1762,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>17</v>
       </c>
@@ -1752,8 +1774,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>18</v>
       </c>
@@ -1763,8 +1786,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>19</v>
       </c>
@@ -1774,8 +1798,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>20</v>
       </c>
@@ -1785,8 +1810,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>21</v>
       </c>
@@ -1796,8 +1822,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>22</v>
       </c>
@@ -1807,8 +1834,9 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>23</v>
       </c>
@@ -1818,8 +1846,9 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>24</v>
       </c>
@@ -1829,8 +1858,9 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>25</v>
       </c>
@@ -1840,8 +1870,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>26</v>
       </c>
@@ -1851,8 +1882,9 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>27</v>
       </c>
@@ -1862,8 +1894,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>28</v>
       </c>
@@ -1873,8 +1906,9 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>29</v>
       </c>
@@ -1884,8 +1918,9 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>30</v>
       </c>
@@ -1895,8 +1930,9 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>31</v>
       </c>
@@ -1906,8 +1942,9 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>32</v>
       </c>
@@ -1917,8 +1954,9 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>33</v>
       </c>
@@ -1928,8 +1966,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>34</v>
       </c>
@@ -1939,8 +1978,9 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>35</v>
       </c>
@@ -1950,8 +1990,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>36</v>
       </c>
@@ -1961,8 +2002,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>37</v>
       </c>
@@ -1972,8 +2014,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>38</v>
       </c>
@@ -1983,8 +2026,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>39</v>
       </c>
@@ -1994,8 +2038,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>40</v>
       </c>
@@ -2005,8 +2050,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>41</v>
       </c>
@@ -2016,8 +2062,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>42</v>
       </c>
@@ -2027,8 +2074,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>43</v>
       </c>
@@ -2038,8 +2086,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>44</v>
       </c>
@@ -2049,8 +2098,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>45</v>
       </c>
@@ -2060,8 +2110,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>46</v>
       </c>
@@ -2071,8 +2122,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>47</v>
       </c>
@@ -2082,8 +2134,9 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>48</v>
       </c>
@@ -2093,8 +2146,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>49</v>
       </c>
@@ -2104,8 +2158,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>50</v>
       </c>
@@ -2115,8 +2170,9 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>51</v>
       </c>
@@ -2126,8 +2182,9 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>52</v>
       </c>
@@ -2137,8 +2194,9 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>53</v>
       </c>
@@ -2148,8 +2206,9 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>54</v>
       </c>
@@ -2159,8 +2218,9 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>55</v>
       </c>
@@ -2170,8 +2230,9 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>56</v>
       </c>
@@ -2181,8 +2242,9 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>57</v>
       </c>
@@ -2192,8 +2254,9 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>58</v>
       </c>
@@ -2203,8 +2266,9 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>59</v>
       </c>
@@ -2214,8 +2278,9 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>60</v>
       </c>
@@ -2225,8 +2290,9 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>61</v>
       </c>
@@ -2236,8 +2302,9 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>62</v>
       </c>
@@ -2247,8 +2314,9 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>63</v>
       </c>
@@ -2258,8 +2326,9 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>64</v>
       </c>
@@ -2269,8 +2338,9 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>65</v>
       </c>
@@ -2280,8 +2350,9 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>66</v>
       </c>
@@ -2291,8 +2362,9 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>67</v>
       </c>
@@ -2302,8 +2374,9 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>68</v>
       </c>
@@ -2313,8 +2386,9 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>69</v>
       </c>
@@ -2324,8 +2398,9 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>70</v>
       </c>
@@ -2335,8 +2410,9 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>71</v>
       </c>
@@ -2346,8 +2422,9 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>72</v>
       </c>
@@ -2357,8 +2434,9 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>73</v>
       </c>
@@ -2368,8 +2446,9 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>74</v>
       </c>
@@ -2379,8 +2458,9 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>75</v>
       </c>
@@ -2390,8 +2470,9 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>76</v>
       </c>
@@ -2401,8 +2482,9 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>77</v>
       </c>
@@ -2412,8 +2494,9 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>78</v>
       </c>
@@ -2423,8 +2506,9 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>79</v>
       </c>
@@ -2434,8 +2518,9 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>80</v>
       </c>
@@ -2445,8 +2530,9 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>81</v>
       </c>
@@ -2456,8 +2542,9 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>82</v>
       </c>
@@ -2467,8 +2554,9 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>83</v>
       </c>
@@ -2478,8 +2566,9 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>84</v>
       </c>
@@ -2489,8 +2578,9 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>85</v>
       </c>
@@ -2500,8 +2590,9 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>86</v>
       </c>
@@ -2511,8 +2602,9 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>87</v>
       </c>
@@ -2522,8 +2614,9 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>88</v>
       </c>
@@ -2533,8 +2626,9 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>89</v>
       </c>
@@ -2544,8 +2638,9 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>90</v>
       </c>
@@ -2555,8 +2650,9 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>91</v>
       </c>
@@ -2566,8 +2662,9 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>92</v>
       </c>
@@ -2577,8 +2674,9 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>93</v>
       </c>
@@ -2588,8 +2686,9 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>94</v>
       </c>
@@ -2599,8 +2698,9 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>95</v>
       </c>
@@ -2610,8 +2710,9 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>96</v>
       </c>
@@ -2621,8 +2722,9 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>97</v>
       </c>
@@ -2632,8 +2734,9 @@
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>98</v>
       </c>
@@ -2643,8 +2746,9 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>99</v>
       </c>
@@ -2654,8 +2758,9 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>100</v>
       </c>
@@ -2665,8 +2770,9 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-    </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>101</v>
       </c>
@@ -2676,8 +2782,9 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>102</v>
       </c>
@@ -2687,8 +2794,9 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>103</v>
       </c>
@@ -2698,8 +2806,9 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-    </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>104</v>
       </c>
@@ -2709,8 +2818,9 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>105</v>
       </c>
@@ -2720,8 +2830,9 @@
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-    </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>106</v>
       </c>
@@ -2731,8 +2842,9 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
-    </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>107</v>
       </c>
@@ -2742,8 +2854,9 @@
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
-    </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>108</v>
       </c>
@@ -2753,8 +2866,9 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>109</v>
       </c>
@@ -2764,8 +2878,9 @@
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-    </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>110</v>
       </c>
@@ -2775,8 +2890,9 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-    </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>111</v>
       </c>
@@ -2786,8 +2902,9 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-    </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>112</v>
       </c>
@@ -2797,8 +2914,9 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>113</v>
       </c>
@@ -2808,8 +2926,9 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-    </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>114</v>
       </c>
@@ -2819,8 +2938,9 @@
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-    </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>115</v>
       </c>
@@ -2830,8 +2950,9 @@
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-    </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>116</v>
       </c>
@@ -2841,8 +2962,9 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-    </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>117</v>
       </c>
@@ -2852,8 +2974,9 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>118</v>
       </c>
@@ -2863,8 +2986,9 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-    </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>119</v>
       </c>
@@ -2874,8 +2998,9 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-    </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>120</v>
       </c>
@@ -2885,8 +3010,9 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-    </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>121</v>
       </c>
@@ -2896,8 +3022,9 @@
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-    </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>122</v>
       </c>
@@ -2907,8 +3034,9 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-    </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>123</v>
       </c>
@@ -2918,8 +3046,9 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-    </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>124</v>
       </c>
@@ -2929,8 +3058,9 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-    </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>125</v>
       </c>
@@ -2940,8 +3070,9 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-    </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>126</v>
       </c>
@@ -2951,8 +3082,9 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
-    </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>127</v>
       </c>
@@ -2962,8 +3094,9 @@
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-    </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>128</v>
       </c>
@@ -2973,8 +3106,9 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-    </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>129</v>
       </c>
@@ -2984,8 +3118,9 @@
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-    </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>130</v>
       </c>
@@ -2995,8 +3130,9 @@
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>131</v>
       </c>
@@ -3006,8 +3142,9 @@
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-    </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>132</v>
       </c>
@@ -3017,8 +3154,9 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-    </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>133</v>
       </c>
@@ -3028,8 +3166,9 @@
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-    </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>134</v>
       </c>
@@ -3039,8 +3178,9 @@
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-    </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>135</v>
       </c>
@@ -3050,8 +3190,9 @@
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-    </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>136</v>
       </c>
@@ -3061,8 +3202,9 @@
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-    </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>137</v>
       </c>
@@ -3072,8 +3214,9 @@
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-    </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>138</v>
       </c>
@@ -3083,8 +3226,9 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>139</v>
       </c>
@@ -3094,8 +3238,9 @@
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-    </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>140</v>
       </c>
@@ -3105,8 +3250,9 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>141</v>
       </c>
@@ -3116,8 +3262,9 @@
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-    </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>142</v>
       </c>
@@ -3127,8 +3274,9 @@
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
-    </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>143</v>
       </c>
@@ -3138,8 +3286,9 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
-    </row>
-    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>144</v>
       </c>
@@ -3149,8 +3298,9 @@
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
-    </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>145</v>
       </c>
@@ -3160,8 +3310,9 @@
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
-    </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>146</v>
       </c>
@@ -3171,8 +3322,9 @@
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-    </row>
-    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>147</v>
       </c>
@@ -3182,8 +3334,9 @@
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-    </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>148</v>
       </c>
@@ -3193,8 +3346,9 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-    </row>
-    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>149</v>
       </c>
@@ -3204,8 +3358,9 @@
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-    </row>
-    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>150</v>
       </c>
@@ -3215,8 +3370,9 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-    </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>151</v>
       </c>
@@ -3226,8 +3382,9 @@
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-    </row>
-    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>152</v>
       </c>
@@ -3237,8 +3394,9 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-    </row>
-    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>153</v>
       </c>
@@ -3248,8 +3406,9 @@
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-    </row>
-    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>154</v>
       </c>
@@ -3259,8 +3418,9 @@
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-    </row>
-    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>155</v>
       </c>
@@ -3270,8 +3430,9 @@
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-    </row>
-    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>156</v>
       </c>
@@ -3281,8 +3442,9 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-    </row>
-    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>157</v>
       </c>
@@ -3292,8 +3454,9 @@
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-    </row>
-    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>158</v>
       </c>
@@ -3303,8 +3466,9 @@
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
-    </row>
-    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>159</v>
       </c>
@@ -3314,8 +3478,9 @@
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
-    </row>
-    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>160</v>
       </c>
@@ -3325,8 +3490,9 @@
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-    </row>
-    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>161</v>
       </c>
@@ -3336,8 +3502,9 @@
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-    </row>
-    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>162</v>
       </c>
@@ -3347,8 +3514,9 @@
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-    </row>
-    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>163</v>
       </c>
@@ -3358,8 +3526,9 @@
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-    </row>
-    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>164</v>
       </c>
@@ -3369,8 +3538,9 @@
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-    </row>
-    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>165</v>
       </c>
@@ -3380,8 +3550,9 @@
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-    </row>
-    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>166</v>
       </c>
@@ -3391,8 +3562,9 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
-    </row>
-    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>167</v>
       </c>
@@ -3402,8 +3574,9 @@
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
-    </row>
-    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>168</v>
       </c>
@@ -3413,8 +3586,9 @@
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
-    </row>
-    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>169</v>
       </c>
@@ -3424,8 +3598,9 @@
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
-    </row>
-    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>170</v>
       </c>
@@ -3435,8 +3610,9 @@
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
-    </row>
-    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>171</v>
       </c>
@@ -3446,8 +3622,9 @@
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-    </row>
-    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>172</v>
       </c>
@@ -3457,8 +3634,9 @@
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-    </row>
-    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>173</v>
       </c>
@@ -3468,8 +3646,9 @@
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-    </row>
-    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>174</v>
       </c>
@@ -3479,8 +3658,9 @@
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-    </row>
-    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>175</v>
       </c>
@@ -3490,8 +3670,9 @@
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-    </row>
-    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>176</v>
       </c>
@@ -3501,8 +3682,9 @@
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-    </row>
-    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H183" s="7"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>177</v>
       </c>
@@ -3512,8 +3694,9 @@
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-    </row>
-    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>178</v>
       </c>
@@ -3523,8 +3706,9 @@
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-    </row>
-    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>179</v>
       </c>
@@ -3534,8 +3718,9 @@
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-    </row>
-    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>180</v>
       </c>
@@ -3545,8 +3730,9 @@
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-    </row>
-    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>181</v>
       </c>
@@ -3556,8 +3742,9 @@
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-    </row>
-    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H188" s="7"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>182</v>
       </c>
@@ -3567,8 +3754,9 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-    </row>
-    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>183</v>
       </c>
@@ -3578,8 +3766,9 @@
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-    </row>
-    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="7"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>184</v>
       </c>
@@ -3589,8 +3778,9 @@
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
-    </row>
-    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H191" s="7"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>185</v>
       </c>
@@ -3600,8 +3790,9 @@
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>186</v>
       </c>
@@ -3611,8 +3802,9 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-    </row>
-    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>187</v>
       </c>
@@ -3622,8 +3814,9 @@
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-    </row>
-    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>188</v>
       </c>
@@ -3633,8 +3826,9 @@
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
-    </row>
-    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>189</v>
       </c>
@@ -3644,8 +3838,9 @@
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
-    </row>
-    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>190</v>
       </c>
@@ -3655,8 +3850,9 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
-    </row>
-    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>191</v>
       </c>
@@ -3666,8 +3862,9 @@
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
-    </row>
-    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>192</v>
       </c>
@@ -3677,8 +3874,9 @@
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
-    </row>
-    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>193</v>
       </c>
@@ -3688,8 +3886,9 @@
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>194</v>
       </c>
@@ -3699,8 +3898,9 @@
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
-    </row>
-    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>195</v>
       </c>
@@ -3710,8 +3910,9 @@
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
-    </row>
-    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>196</v>
       </c>
@@ -3721,8 +3922,9 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
-    </row>
-    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>197</v>
       </c>
@@ -3732,8 +3934,9 @@
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
-    </row>
-    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>198</v>
       </c>
@@ -3743,8 +3946,9 @@
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
-    </row>
-    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>199</v>
       </c>
@@ -3754,8 +3958,9 @@
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
-    </row>
-    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>200</v>
       </c>
@@ -3765,8 +3970,9 @@
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
-    </row>
-    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>201</v>
       </c>
@@ -3776,8 +3982,9 @@
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
-    </row>
-    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>202</v>
       </c>
@@ -3787,8 +3994,9 @@
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
-    </row>
-    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H209" s="7"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>203</v>
       </c>
@@ -3798,8 +4006,9 @@
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
-    </row>
-    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="7"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>204</v>
       </c>
@@ -3809,8 +4018,9 @@
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
-    </row>
-    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H211" s="7"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>205</v>
       </c>
@@ -3820,8 +4030,9 @@
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
-    </row>
-    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>206</v>
       </c>
@@ -3831,8 +4042,9 @@
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
-    </row>
-    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>207</v>
       </c>
@@ -3842,8 +4054,9 @@
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
-    </row>
-    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>208</v>
       </c>
@@ -3853,8 +4066,9 @@
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
-    </row>
-    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>209</v>
       </c>
@@ -3864,8 +4078,9 @@
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
-    </row>
-    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>210</v>
       </c>
@@ -3875,8 +4090,9 @@
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
-    </row>
-    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>211</v>
       </c>
@@ -3886,8 +4102,9 @@
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
-    </row>
-    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H218" s="7"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>212</v>
       </c>
@@ -3897,8 +4114,9 @@
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
-    </row>
-    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>213</v>
       </c>
@@ -3908,8 +4126,9 @@
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
-    </row>
-    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H220" s="7"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>214</v>
       </c>
@@ -3919,8 +4138,9 @@
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
-    </row>
-    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H221" s="7"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>215</v>
       </c>
@@ -3930,8 +4150,9 @@
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
-    </row>
-    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H222" s="7"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>216</v>
       </c>
@@ -3941,8 +4162,9 @@
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
-    </row>
-    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H223" s="7"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>217</v>
       </c>
@@ -3952,8 +4174,9 @@
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H224" s="7"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>218</v>
       </c>
@@ -3963,8 +4186,9 @@
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
-    </row>
-    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>219</v>
       </c>
@@ -3974,8 +4198,9 @@
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
-    </row>
-    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H226" s="7"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>220</v>
       </c>
@@ -3985,8 +4210,9 @@
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
-    </row>
-    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H227" s="7"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>221</v>
       </c>
@@ -3996,8 +4222,9 @@
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
-    </row>
-    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H228" s="7"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>222</v>
       </c>
@@ -4007,8 +4234,9 @@
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
-    </row>
-    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="7"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>223</v>
       </c>
@@ -4018,8 +4246,9 @@
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
-    </row>
-    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="7"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>224</v>
       </c>
@@ -4029,8 +4258,9 @@
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
-    </row>
-    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H231" s="7"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>225</v>
       </c>
@@ -4040,8 +4270,9 @@
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
-    </row>
-    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H232" s="7"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>226</v>
       </c>
@@ -4051,8 +4282,9 @@
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
-    </row>
-    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>227</v>
       </c>
@@ -4062,8 +4294,9 @@
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
-    </row>
-    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H234" s="7"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>228</v>
       </c>
@@ -4073,8 +4306,9 @@
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
-    </row>
-    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>229</v>
       </c>
@@ -4084,8 +4318,9 @@
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
-    </row>
-    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H236" s="7"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>230</v>
       </c>
@@ -4095,8 +4330,9 @@
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
-    </row>
-    <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H237" s="7"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>231</v>
       </c>
@@ -4106,8 +4342,9 @@
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
-    </row>
-    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H238" s="7"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>232</v>
       </c>
@@ -4117,8 +4354,9 @@
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
-    </row>
-    <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H239" s="7"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>233</v>
       </c>
@@ -4128,8 +4366,9 @@
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
-    </row>
-    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="7"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>234</v>
       </c>
@@ -4139,8 +4378,9 @@
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
-    </row>
-    <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H241" s="7"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>235</v>
       </c>
@@ -4150,8 +4390,9 @@
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
-    </row>
-    <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>236</v>
       </c>
@@ -4161,8 +4402,9 @@
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
-    </row>
-    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H243" s="7"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>237</v>
       </c>
@@ -4172,8 +4414,9 @@
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
-    </row>
-    <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>238</v>
       </c>
@@ -4183,8 +4426,9 @@
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
-    </row>
-    <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H245" s="7"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>239</v>
       </c>
@@ -4194,8 +4438,9 @@
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
-    </row>
-    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>240</v>
       </c>
@@ -4205,8 +4450,9 @@
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
-    </row>
-    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H247" s="7"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>241</v>
       </c>
@@ -4216,8 +4462,9 @@
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
-    </row>
-    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H248" s="7"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>242</v>
       </c>
@@ -4227,8 +4474,9 @@
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
-    </row>
-    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H249" s="7"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>243</v>
       </c>
@@ -4238,8 +4486,9 @@
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
       <c r="G250" s="7"/>
-    </row>
-    <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H250" s="7"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>244</v>
       </c>
@@ -4249,8 +4498,9 @@
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
-    </row>
-    <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H251" s="7"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>245</v>
       </c>
@@ -4260,8 +4510,9 @@
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
-    </row>
-    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>246</v>
       </c>
@@ -4271,8 +4522,9 @@
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
-    </row>
-    <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H253" s="7"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>247</v>
       </c>
@@ -4282,8 +4534,9 @@
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="G254" s="7"/>
-    </row>
-    <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H254" s="7"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>248</v>
       </c>
@@ -4293,8 +4546,9 @@
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
-    </row>
-    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H255" s="7"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>249</v>
       </c>
@@ -4304,8 +4558,9 @@
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
-    </row>
-    <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H256" s="7"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>250</v>
       </c>
@@ -4315,8 +4570,9 @@
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
-    </row>
-    <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H257" s="7"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>251</v>
       </c>
@@ -4326,8 +4582,9 @@
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
-    </row>
-    <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H258" s="7"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>252</v>
       </c>
@@ -4337,8 +4594,9 @@
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
-    </row>
-    <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H259" s="7"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>253</v>
       </c>
@@ -4348,8 +4606,9 @@
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
-    </row>
-    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H260" s="7"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>254</v>
       </c>
@@ -4359,8 +4618,9 @@
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
-    </row>
-    <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H261" s="7"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>255</v>
       </c>
@@ -4370,8 +4630,9 @@
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
-    </row>
-    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H262" s="7"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>256</v>
       </c>
@@ -4381,8 +4642,9 @@
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
-    </row>
-    <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H263" s="7"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>257</v>
       </c>
@@ -4392,8 +4654,9 @@
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
-    </row>
-    <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H264" s="7"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>258</v>
       </c>
@@ -4403,8 +4666,9 @@
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
-    </row>
-    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H265" s="7"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>259</v>
       </c>
@@ -4414,8 +4678,9 @@
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
-    </row>
-    <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H266" s="7"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>260</v>
       </c>
@@ -4425,8 +4690,9 @@
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
-    </row>
-    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H267" s="7"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>261</v>
       </c>
@@ -4436,8 +4702,9 @@
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
-    </row>
-    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H268" s="7"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>262</v>
       </c>
@@ -4447,8 +4714,9 @@
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
-    </row>
-    <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H269" s="7"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>263</v>
       </c>
@@ -4458,8 +4726,9 @@
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
-    </row>
-    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H270" s="7"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>264</v>
       </c>
@@ -4469,8 +4738,9 @@
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
-    </row>
-    <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H271" s="7"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>265</v>
       </c>
@@ -4480,8 +4750,9 @@
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
-    </row>
-    <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H272" s="7"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>266</v>
       </c>
@@ -4491,8 +4762,9 @@
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
-    </row>
-    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H273" s="7"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>267</v>
       </c>
@@ -4502,8 +4774,9 @@
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
       <c r="G274" s="7"/>
-    </row>
-    <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H274" s="7"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>268</v>
       </c>
@@ -4513,8 +4786,9 @@
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
-    </row>
-    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H275" s="7"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>269</v>
       </c>
@@ -4524,8 +4798,9 @@
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
-    </row>
-    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H276" s="7"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>270</v>
       </c>
@@ -4535,8 +4810,9 @@
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
-    </row>
-    <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H277" s="7"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>271</v>
       </c>
@@ -4546,8 +4822,9 @@
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
-    </row>
-    <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H278" s="7"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>272</v>
       </c>
@@ -4557,8 +4834,9 @@
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
-    </row>
-    <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H279" s="7"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>273</v>
       </c>
@@ -4568,8 +4846,9 @@
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
-    </row>
-    <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H280" s="7"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>274</v>
       </c>
@@ -4579,8 +4858,9 @@
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
-    </row>
-    <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H281" s="7"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>275</v>
       </c>
@@ -4590,8 +4870,9 @@
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
-    </row>
-    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H282" s="7"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>276</v>
       </c>
@@ -4601,8 +4882,9 @@
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
-    </row>
-    <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H283" s="7"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>277</v>
       </c>
@@ -4612,8 +4894,9 @@
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
-    </row>
-    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H284" s="7"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>278</v>
       </c>
@@ -4623,8 +4906,9 @@
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
-    </row>
-    <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H285" s="7"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>279</v>
       </c>
@@ -4634,8 +4918,9 @@
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
-    </row>
-    <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H286" s="7"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>280</v>
       </c>
@@ -4645,8 +4930,9 @@
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
-    </row>
-    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H287" s="7"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>281</v>
       </c>
@@ -4656,8 +4942,9 @@
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
-    </row>
-    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H288" s="7"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>282</v>
       </c>
@@ -4667,8 +4954,9 @@
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
-    </row>
-    <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H289" s="7"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>283</v>
       </c>
@@ -4678,8 +4966,9 @@
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
-    </row>
-    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H290" s="7"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>284</v>
       </c>
@@ -4689,8 +4978,9 @@
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
-    </row>
-    <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H291" s="7"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>285</v>
       </c>
@@ -4700,8 +4990,9 @@
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
-    </row>
-    <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H292" s="7"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>286</v>
       </c>
@@ -4711,8 +5002,9 @@
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
-    </row>
-    <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H293" s="7"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>287</v>
       </c>
@@ -4722,8 +5014,9 @@
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
-    </row>
-    <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H294" s="7"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>288</v>
       </c>
@@ -4733,8 +5026,9 @@
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
-    </row>
-    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H295" s="7"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>289</v>
       </c>
@@ -4744,8 +5038,9 @@
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
-    </row>
-    <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H296" s="7"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>290</v>
       </c>
@@ -4755,8 +5050,9 @@
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
-    </row>
-    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H297" s="7"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>291</v>
       </c>
@@ -4766,8 +5062,9 @@
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
-    </row>
-    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H298" s="7"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>292</v>
       </c>
@@ -4777,8 +5074,9 @@
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
-    </row>
-    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H299" s="7"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>293</v>
       </c>
@@ -4788,8 +5086,9 @@
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
-    </row>
-    <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H300" s="7"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>294</v>
       </c>
@@ -4799,8 +5098,9 @@
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
-    </row>
-    <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H301" s="7"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>295</v>
       </c>
@@ -4810,8 +5110,9 @@
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
-    </row>
-    <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H302" s="7"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>296</v>
       </c>
@@ -4821,8 +5122,9 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
-    </row>
-    <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H303" s="7"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>297</v>
       </c>
@@ -4832,8 +5134,9 @@
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
-    </row>
-    <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H304" s="7"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>298</v>
       </c>
@@ -4843,8 +5146,9 @@
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
       <c r="G305" s="7"/>
-    </row>
-    <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H305" s="7"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>299</v>
       </c>
@@ -4854,8 +5158,9 @@
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
       <c r="G306" s="7"/>
-    </row>
-    <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H306" s="7"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>300</v>
       </c>
@@ -4865,8 +5170,9 @@
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
-    </row>
-    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H307" s="7"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>301</v>
       </c>
@@ -4876,8 +5182,9 @@
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
-    </row>
-    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H308" s="7"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>302</v>
       </c>
@@ -4887,8 +5194,9 @@
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
-    </row>
-    <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H309" s="7"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>303</v>
       </c>
@@ -4898,8 +5206,9 @@
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
-    </row>
-    <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H310" s="7"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>304</v>
       </c>
@@ -4909,8 +5218,9 @@
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
       <c r="G311" s="7"/>
-    </row>
-    <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H311" s="7"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>305</v>
       </c>
@@ -4920,8 +5230,9 @@
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
-    </row>
-    <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="7"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>306</v>
       </c>
@@ -4931,8 +5242,9 @@
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
-    </row>
-    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H313" s="7"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>307</v>
       </c>
@@ -4942,8 +5254,9 @@
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
-    </row>
-    <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H314" s="7"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>308</v>
       </c>
@@ -4953,8 +5266,9 @@
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
-    </row>
-    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H315" s="7"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <v>309</v>
       </c>
@@ -4964,8 +5278,9 @@
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-    </row>
-    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H316" s="7"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <v>310</v>
       </c>
@@ -4975,8 +5290,9 @@
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
-    </row>
-    <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H317" s="7"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>311</v>
       </c>
@@ -4986,8 +5302,9 @@
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
-    </row>
-    <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H318" s="7"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>312</v>
       </c>
@@ -4997,8 +5314,9 @@
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
-    </row>
-    <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H319" s="7"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>313</v>
       </c>
@@ -5008,8 +5326,9 @@
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
-    </row>
-    <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H320" s="7"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>314</v>
       </c>
@@ -5019,8 +5338,9 @@
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
-    </row>
-    <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H321" s="7"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>315</v>
       </c>
@@ -5030,8 +5350,9 @@
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
-    </row>
-    <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H322" s="7"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <v>316</v>
       </c>
@@ -5041,8 +5362,9 @@
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
-    </row>
-    <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H323" s="7"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <v>317</v>
       </c>
@@ -5052,8 +5374,9 @@
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
-    </row>
-    <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H324" s="7"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>318</v>
       </c>
@@ -5063,8 +5386,9 @@
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
-    </row>
-    <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H325" s="7"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <v>319</v>
       </c>
@@ -5074,8 +5398,9 @@
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
-    </row>
-    <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H326" s="7"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>320</v>
       </c>
@@ -5085,8 +5410,9 @@
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
-    </row>
-    <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H327" s="7"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>321</v>
       </c>
@@ -5096,8 +5422,9 @@
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
-    </row>
-    <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H328" s="7"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>322</v>
       </c>
@@ -5107,8 +5434,9 @@
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
-    </row>
-    <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H329" s="7"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <v>323</v>
       </c>
@@ -5118,8 +5446,9 @@
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
-    </row>
-    <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H330" s="7"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>324</v>
       </c>
@@ -5129,8 +5458,9 @@
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
-    </row>
-    <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H331" s="7"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>325</v>
       </c>
@@ -5140,8 +5470,9 @@
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
-    </row>
-    <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H332" s="7"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>326</v>
       </c>
@@ -5151,8 +5482,9 @@
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
       <c r="G333" s="7"/>
-    </row>
-    <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H333" s="7"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>327</v>
       </c>
@@ -5162,8 +5494,9 @@
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
-    </row>
-    <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H334" s="7"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <v>328</v>
       </c>
@@ -5173,8 +5506,9 @@
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
-    </row>
-    <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H335" s="7"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>329</v>
       </c>
@@ -5184,8 +5518,9 @@
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
-    </row>
-    <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H336" s="7"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <v>330</v>
       </c>
@@ -5195,8 +5530,9 @@
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
-    </row>
-    <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H337" s="7"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>331</v>
       </c>
@@ -5206,8 +5542,9 @@
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
-    </row>
-    <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H338" s="7"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>332</v>
       </c>
@@ -5217,8 +5554,9 @@
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
-    </row>
-    <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H339" s="7"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>333</v>
       </c>
@@ -5228,8 +5566,9 @@
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
-    </row>
-    <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H340" s="7"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>334</v>
       </c>
@@ -5239,8 +5578,9 @@
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
-    </row>
-    <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H341" s="7"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>335</v>
       </c>
@@ -5250,8 +5590,9 @@
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
-    </row>
-    <row r="343" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H342" s="7"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>336</v>
       </c>
@@ -5261,8 +5602,9 @@
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
-    </row>
-    <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H343" s="7"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>337</v>
       </c>
@@ -5272,8 +5614,9 @@
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
-    </row>
-    <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H344" s="7"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <v>338</v>
       </c>
@@ -5283,8 +5626,9 @@
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
-    </row>
-    <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H345" s="7"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>339</v>
       </c>
@@ -5294,8 +5638,9 @@
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
-    </row>
-    <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H346" s="7"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>340</v>
       </c>
@@ -5305,8 +5650,9 @@
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
-    </row>
-    <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H347" s="7"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>341</v>
       </c>
@@ -5316,8 +5662,9 @@
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
-    </row>
-    <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H348" s="7"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>342</v>
       </c>
@@ -5327,8 +5674,9 @@
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
-    </row>
-    <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H349" s="7"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <v>343</v>
       </c>
@@ -5338,8 +5686,9 @@
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
-    </row>
-    <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H350" s="7"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>344</v>
       </c>
@@ -5349,8 +5698,9 @@
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
-    </row>
-    <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H351" s="7"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>345</v>
       </c>
@@ -5360,8 +5710,9 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
-    </row>
-    <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H352" s="7"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <v>346</v>
       </c>
@@ -5371,8 +5722,9 @@
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
-    </row>
-    <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H353" s="7"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <v>347</v>
       </c>
@@ -5382,8 +5734,9 @@
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
-    </row>
-    <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H354" s="7"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <v>348</v>
       </c>
@@ -5393,8 +5746,9 @@
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
-    </row>
-    <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H355" s="7"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <v>349</v>
       </c>
@@ -5404,8 +5758,9 @@
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
-    </row>
-    <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H356" s="7"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>350</v>
       </c>
@@ -5415,8 +5770,9 @@
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
-    </row>
-    <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>351</v>
       </c>
@@ -5426,8 +5782,9 @@
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
-    </row>
-    <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H358" s="7"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>352</v>
       </c>
@@ -5437,8 +5794,9 @@
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
-    </row>
-    <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>353</v>
       </c>
@@ -5448,8 +5806,9 @@
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
-    </row>
-    <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H360" s="7"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>354</v>
       </c>
@@ -5459,8 +5818,9 @@
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
-    </row>
-    <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H361" s="7"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>355</v>
       </c>
@@ -5470,8 +5830,9 @@
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
-    </row>
-    <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H362" s="7"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <v>356</v>
       </c>
@@ -5481,8 +5842,9 @@
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
-    </row>
-    <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H363" s="7"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <v>357</v>
       </c>
@@ -5492,8 +5854,9 @@
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
-    </row>
-    <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H364" s="7"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <v>358</v>
       </c>
@@ -5503,8 +5866,9 @@
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
-    </row>
-    <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H365" s="7"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <v>359</v>
       </c>
@@ -5514,8 +5878,9 @@
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
-    </row>
-    <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H366" s="7"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <v>360</v>
       </c>
@@ -5525,8 +5890,9 @@
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
-    </row>
-    <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H367" s="7"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>361</v>
       </c>
@@ -5536,8 +5902,9 @@
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
-    </row>
-    <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H368" s="7"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>362</v>
       </c>
@@ -5547,8 +5914,9 @@
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
-    </row>
-    <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H369" s="7"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <v>363</v>
       </c>
@@ -5558,8 +5926,9 @@
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
-    </row>
-    <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H370" s="7"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>364</v>
       </c>
@@ -5569,8 +5938,9 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
-    </row>
-    <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H371" s="7"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>365</v>
       </c>
@@ -5580,8 +5950,9 @@
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
-    </row>
-    <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H372" s="7"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <v>366</v>
       </c>
@@ -5591,8 +5962,9 @@
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
-    </row>
-    <row r="374" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H373" s="7"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <v>367</v>
       </c>
@@ -5602,8 +5974,9 @@
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
-    </row>
-    <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H374" s="7"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>368</v>
       </c>
@@ -5613,8 +5986,9 @@
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
-    </row>
-    <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H375" s="7"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <v>369</v>
       </c>
@@ -5624,8 +5998,9 @@
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
-    </row>
-    <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H376" s="7"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <v>370</v>
       </c>
@@ -5635,8 +6010,9 @@
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
-    </row>
-    <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H377" s="7"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <v>371</v>
       </c>
@@ -5646,8 +6022,9 @@
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
-    </row>
-    <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H378" s="7"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <v>372</v>
       </c>
@@ -5657,8 +6034,9 @@
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
-    </row>
-    <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H379" s="7"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <v>373</v>
       </c>
@@ -5668,8 +6046,9 @@
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
-    </row>
-    <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H380" s="7"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <v>374</v>
       </c>
@@ -5679,8 +6058,9 @@
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
-    </row>
-    <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H381" s="7"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <v>375</v>
       </c>
@@ -5690,8 +6070,9 @@
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
-    </row>
-    <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H382" s="7"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <v>376</v>
       </c>
@@ -5701,8 +6082,9 @@
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
-    </row>
-    <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H383" s="7"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <v>377</v>
       </c>
@@ -5712,8 +6094,9 @@
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
-    </row>
-    <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H384" s="7"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
         <v>378</v>
       </c>
@@ -5723,8 +6106,9 @@
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
-    </row>
-    <row r="386" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H385" s="7"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
         <v>379</v>
       </c>
@@ -5734,8 +6118,9 @@
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
-    </row>
-    <row r="387" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H386" s="7"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <v>380</v>
       </c>
@@ -5745,8 +6130,9 @@
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
-    </row>
-    <row r="388" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H387" s="7"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <v>381</v>
       </c>
@@ -5756,8 +6142,9 @@
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
-    </row>
-    <row r="389" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H388" s="7"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <v>382</v>
       </c>
@@ -5767,8 +6154,9 @@
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
-    </row>
-    <row r="390" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H389" s="7"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
         <v>383</v>
       </c>
@@ -5778,8 +6166,9 @@
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
-    </row>
-    <row r="391" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H390" s="7"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
         <v>384</v>
       </c>
@@ -5789,10 +6178,11 @@
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
+      <c r="H391" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F8:F391" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8:G391" type="list">
       <formula1>"YES"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5822,7 +6212,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.17"/>
@@ -5831,2284 +6221,2284 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
